--- a/team_specific_matrix/Niagara_A.xlsx
+++ b/team_specific_matrix/Niagara_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1666666666666667</v>
+        <v>0.1561338289962825</v>
       </c>
       <c r="C2">
-        <v>0.6111111111111112</v>
+        <v>0.6282527881040892</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008547008547008548</v>
+        <v>0.007434944237918215</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1282051282051282</v>
+        <v>0.1226765799256506</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08547008547008547</v>
+        <v>0.08550185873605948</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.006896551724137931</v>
+        <v>0.005813953488372093</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04137931034482759</v>
+        <v>0.03488372093023256</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8206896551724138</v>
+        <v>0.8255813953488372</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1310344827586207</v>
+        <v>0.1337209302325581</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8125</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1875</v>
+        <v>0.1904761904761905</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07317073170731707</v>
+        <v>0.08230452674897119</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01463414634146342</v>
+        <v>0.0205761316872428</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1073170731707317</v>
+        <v>0.09876543209876543</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3024390243902439</v>
+        <v>0.2880658436213992</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.00975609756097561</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1512195121951219</v>
+        <v>0.1440329218106996</v>
       </c>
       <c r="R6">
-        <v>0.03902439024390244</v>
+        <v>0.0411522633744856</v>
       </c>
       <c r="S6">
-        <v>0.3024390243902439</v>
+        <v>0.3127572016460906</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1384615384615385</v>
+        <v>0.1266666666666667</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04615384615384616</v>
+        <v>0.04666666666666667</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08461538461538462</v>
+        <v>0.08666666666666667</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01538461538461539</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2461538461538462</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="R7">
-        <v>0.05384615384615385</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="S7">
-        <v>0.4153846153846154</v>
+        <v>0.4133333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1119402985074627</v>
+        <v>0.1118012422360248</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01741293532338309</v>
+        <v>0.01863354037267081</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06218905472636816</v>
+        <v>0.06625258799171843</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08706467661691543</v>
+        <v>0.07867494824016563</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01990049751243781</v>
+        <v>0.02070393374741201</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1990049751243781</v>
+        <v>0.1884057971014493</v>
       </c>
       <c r="R8">
-        <v>0.07711442786069651</v>
+        <v>0.08074534161490683</v>
       </c>
       <c r="S8">
-        <v>0.4253731343283582</v>
+        <v>0.4347826086956522</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08547008547008547</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03418803418803419</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05128205128205128</v>
+        <v>0.05797101449275362</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09401709401709402</v>
+        <v>0.09420289855072464</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0170940170940171</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2564102564102564</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="R9">
-        <v>0.08547008547008547</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="S9">
-        <v>0.3760683760683761</v>
+        <v>0.3840579710144927</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1166666666666667</v>
+        <v>0.1151574803149606</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02111111111111111</v>
+        <v>0.02066929133858268</v>
       </c>
       <c r="E10">
-        <v>0.002222222222222222</v>
+        <v>0.001968503937007874</v>
       </c>
       <c r="F10">
-        <v>0.07222222222222222</v>
+        <v>0.06791338582677166</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08777777777777777</v>
+        <v>0.08661417322834646</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01777777777777778</v>
+        <v>0.01771653543307087</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2477777777777778</v>
+        <v>0.2421259842519685</v>
       </c>
       <c r="R10">
-        <v>0.07888888888888888</v>
+        <v>0.08070866141732283</v>
       </c>
       <c r="S10">
-        <v>0.3555555555555556</v>
+        <v>0.3671259842519685</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1710526315789474</v>
+        <v>0.1717557251908397</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06578947368421052</v>
+        <v>0.07251908396946564</v>
       </c>
       <c r="K11">
-        <v>0.2368421052631579</v>
+        <v>0.2366412213740458</v>
       </c>
       <c r="L11">
-        <v>0.5131578947368421</v>
+        <v>0.5076335877862596</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0131578947368421</v>
+        <v>0.01145038167938931</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6837606837606838</v>
+        <v>0.7014925373134329</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2564102564102564</v>
+        <v>0.2313432835820896</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.02564102564102564</v>
+        <v>0.02238805970149254</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03418803418803419</v>
+        <v>0.04477611940298507</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5757575757575758</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3939393939393939</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.0303030303030303</v>
+        <v>0.02631578947368421</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03896103896103896</v>
+        <v>0.04210526315789474</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1883116883116883</v>
+        <v>0.1894736842105263</v>
       </c>
       <c r="I15">
-        <v>0.07142857142857142</v>
+        <v>0.07368421052631578</v>
       </c>
       <c r="J15">
-        <v>0.3636363636363636</v>
+        <v>0.3526315789473684</v>
       </c>
       <c r="K15">
-        <v>0.07142857142857142</v>
+        <v>0.06842105263157895</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02597402597402598</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07792207792207792</v>
+        <v>0.07368421052631578</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1623376623376623</v>
+        <v>0.1736842105263158</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03529411764705882</v>
+        <v>0.03414634146341464</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1882352941176471</v>
+        <v>0.2048780487804878</v>
       </c>
       <c r="I16">
-        <v>0.09411764705882353</v>
+        <v>0.08780487804878048</v>
       </c>
       <c r="J16">
-        <v>0.4058823529411765</v>
+        <v>0.4048780487804878</v>
       </c>
       <c r="K16">
-        <v>0.1058823529411765</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01176470588235294</v>
+        <v>0.01951219512195122</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04117647058823529</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1176470588235294</v>
+        <v>0.1024390243902439</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.04568527918781726</v>
+        <v>0.04054054054054054</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2157360406091371</v>
+        <v>0.2252252252252252</v>
       </c>
       <c r="I17">
-        <v>0.08121827411167512</v>
+        <v>0.07657657657657657</v>
       </c>
       <c r="J17">
-        <v>0.4162436548223351</v>
+        <v>0.4009009009009009</v>
       </c>
       <c r="K17">
-        <v>0.09137055837563451</v>
+        <v>0.09009009009009009</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.002538071065989848</v>
+        <v>0.002252252252252252</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06598984771573604</v>
+        <v>0.07207207207207207</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08121827411167512</v>
+        <v>0.09234234234234234</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.04</v>
+        <v>0.03973509933774835</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.224</v>
+        <v>0.2384105960264901</v>
       </c>
       <c r="I18">
-        <v>0.064</v>
+        <v>0.06622516556291391</v>
       </c>
       <c r="J18">
-        <v>0.376</v>
+        <v>0.3576158940397351</v>
       </c>
       <c r="K18">
-        <v>0.096</v>
+        <v>0.08609271523178808</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.024</v>
+        <v>0.01986754966887417</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.096</v>
+        <v>0.09933774834437085</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08</v>
+        <v>0.09271523178807947</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02857142857142857</v>
+        <v>0.03561387066541706</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2651428571428571</v>
+        <v>0.2567947516401125</v>
       </c>
       <c r="I19">
-        <v>0.05942857142857143</v>
+        <v>0.05998125585754452</v>
       </c>
       <c r="J19">
-        <v>0.3474285714285714</v>
+        <v>0.3252108716026242</v>
       </c>
       <c r="K19">
-        <v>0.1097142857142857</v>
+        <v>0.1040299906279288</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02971428571428571</v>
+        <v>0.02624179943767573</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05371428571428571</v>
+        <v>0.05716963448922212</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1062857142857143</v>
+        <v>0.1349578256794752</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Niagara_A.xlsx
+++ b/team_specific_matrix/Niagara_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1561338289962825</v>
+        <v>0.1607142857142857</v>
       </c>
       <c r="C2">
-        <v>0.6282527881040892</v>
+        <v>0.6178571428571429</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.007434944237918215</v>
+        <v>0.007142857142857143</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1226765799256506</v>
+        <v>0.125</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08550185873605948</v>
+        <v>0.08928571428571429</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.005813953488372093</v>
+        <v>0.005681818181818182</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03488372093023256</v>
+        <v>0.03409090909090909</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8255813953488372</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1337209302325581</v>
+        <v>0.1420454545454546</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08230452674897119</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0205761316872428</v>
+        <v>0.01976284584980237</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09876543209876543</v>
+        <v>0.09486166007905138</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2880658436213992</v>
+        <v>0.2806324110671937</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01234567901234568</v>
+        <v>0.01185770750988142</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1440329218106996</v>
+        <v>0.1383399209486166</v>
       </c>
       <c r="R6">
-        <v>0.0411522633744856</v>
+        <v>0.03952569169960474</v>
       </c>
       <c r="S6">
-        <v>0.3127572016460906</v>
+        <v>0.3241106719367589</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1266666666666667</v>
+        <v>0.1265822784810127</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02666666666666667</v>
+        <v>0.03164556962025317</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04666666666666667</v>
+        <v>0.04430379746835443</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08666666666666667</v>
+        <v>0.0949367088607595</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01333333333333333</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2333333333333333</v>
+        <v>0.2278481012658228</v>
       </c>
       <c r="R7">
-        <v>0.05333333333333334</v>
+        <v>0.05696202531645569</v>
       </c>
       <c r="S7">
-        <v>0.4133333333333333</v>
+        <v>0.4050632911392405</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1118012422360248</v>
+        <v>0.106508875739645</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01863354037267081</v>
+        <v>0.01775147928994083</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06625258799171843</v>
+        <v>0.07100591715976332</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07867494824016563</v>
+        <v>0.07889546351084813</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02070393374741201</v>
+        <v>0.01972386587771203</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1884057971014493</v>
+        <v>0.1952662721893491</v>
       </c>
       <c r="R8">
-        <v>0.08074534161490683</v>
+        <v>0.08086785009861933</v>
       </c>
       <c r="S8">
-        <v>0.4347826086956522</v>
+        <v>0.4299802761341223</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08695652173913043</v>
+        <v>0.09219858156028368</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02898550724637681</v>
+        <v>0.02836879432624113</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05797101449275362</v>
+        <v>0.05673758865248227</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09420289855072464</v>
+        <v>0.09219858156028368</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02173913043478261</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2391304347826087</v>
+        <v>0.2340425531914894</v>
       </c>
       <c r="R9">
-        <v>0.08695652173913043</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="S9">
-        <v>0.3840579710144927</v>
+        <v>0.3900709219858156</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1151574803149606</v>
+        <v>0.1140684410646388</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02066929133858268</v>
+        <v>0.01996197718631179</v>
       </c>
       <c r="E10">
-        <v>0.001968503937007874</v>
+        <v>0.001901140684410646</v>
       </c>
       <c r="F10">
-        <v>0.06791338582677166</v>
+        <v>0.06844106463878327</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08661417322834646</v>
+        <v>0.08460076045627377</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01771653543307087</v>
+        <v>0.01711026615969582</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2421259842519685</v>
+        <v>0.2423954372623574</v>
       </c>
       <c r="R10">
-        <v>0.08070866141732283</v>
+        <v>0.07984790874524715</v>
       </c>
       <c r="S10">
-        <v>0.3671259842519685</v>
+        <v>0.3716730038022814</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1717557251908397</v>
+        <v>0.1734317343173432</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07251908396946564</v>
+        <v>0.07011070110701106</v>
       </c>
       <c r="K11">
-        <v>0.2366412213740458</v>
+        <v>0.2361623616236162</v>
       </c>
       <c r="L11">
-        <v>0.5076335877862596</v>
+        <v>0.5092250922509225</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01145038167938931</v>
+        <v>0.01107011070110701</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7014925373134329</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2313432835820896</v>
+        <v>0.2214285714285714</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.02238805970149254</v>
+        <v>0.02142857142857143</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04477611940298507</v>
+        <v>0.04285714285714286</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04210526315789474</v>
+        <v>0.04040404040404041</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1894736842105263</v>
+        <v>0.1919191919191919</v>
       </c>
       <c r="I15">
-        <v>0.07368421052631578</v>
+        <v>0.0707070707070707</v>
       </c>
       <c r="J15">
-        <v>0.3526315789473684</v>
+        <v>0.3585858585858586</v>
       </c>
       <c r="K15">
-        <v>0.06842105263157895</v>
+        <v>0.0707070707070707</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02631578947368421</v>
+        <v>0.02525252525252525</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07368421052631578</v>
+        <v>0.0707070707070707</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1736842105263158</v>
+        <v>0.1717171717171717</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03414634146341464</v>
+        <v>0.03349282296650718</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2048780487804878</v>
+        <v>0.2009569377990431</v>
       </c>
       <c r="I16">
-        <v>0.08780487804878048</v>
+        <v>0.09569377990430622</v>
       </c>
       <c r="J16">
-        <v>0.4048780487804878</v>
+        <v>0.3971291866028708</v>
       </c>
       <c r="K16">
-        <v>0.0975609756097561</v>
+        <v>0.1004784688995215</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01951219512195122</v>
+        <v>0.01913875598086124</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04878048780487805</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1024390243902439</v>
+        <v>0.1004784688995215</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.04054054054054054</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2252252252252252</v>
+        <v>0.2294372294372294</v>
       </c>
       <c r="I17">
-        <v>0.07657657657657657</v>
+        <v>0.0735930735930736</v>
       </c>
       <c r="J17">
-        <v>0.4009009009009009</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="K17">
-        <v>0.09009009009009009</v>
+        <v>0.08874458874458875</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.002252252252252252</v>
+        <v>0.002164502164502165</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07207207207207207</v>
+        <v>0.0735930735930736</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09234234234234234</v>
+        <v>0.08874458874458875</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03973509933774835</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2384105960264901</v>
+        <v>0.2371794871794872</v>
       </c>
       <c r="I18">
-        <v>0.06622516556291391</v>
+        <v>0.0641025641025641</v>
       </c>
       <c r="J18">
-        <v>0.3576158940397351</v>
+        <v>0.3525641025641026</v>
       </c>
       <c r="K18">
-        <v>0.08609271523178808</v>
+        <v>0.08974358974358974</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01986754966887417</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.09933774834437085</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09271523178807947</v>
+        <v>0.09615384615384616</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.03561387066541706</v>
+        <v>0.03584229390681003</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2567947516401125</v>
+        <v>0.2589605734767025</v>
       </c>
       <c r="I19">
-        <v>0.05998125585754452</v>
+        <v>0.05824372759856631</v>
       </c>
       <c r="J19">
-        <v>0.3252108716026242</v>
+        <v>0.3261648745519714</v>
       </c>
       <c r="K19">
-        <v>0.1040299906279288</v>
+        <v>0.1021505376344086</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02624179943767573</v>
+        <v>0.02508960573476703</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05716963448922212</v>
+        <v>0.05824372759856631</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1349578256794752</v>
+        <v>0.1353046594982079</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Niagara_A.xlsx
+++ b/team_specific_matrix/Niagara_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1607142857142857</v>
+        <v>0.1644736842105263</v>
       </c>
       <c r="C2">
-        <v>0.6178571428571429</v>
+        <v>0.6085526315789473</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.007142857142857143</v>
+        <v>0.006578947368421052</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.125</v>
+        <v>0.1217105263157895</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08928571428571429</v>
+        <v>0.09868421052631579</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.005681818181818182</v>
+        <v>0.005319148936170213</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03409090909090909</v>
+        <v>0.03191489361702127</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8181818181818182</v>
+        <v>0.8191489361702128</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1420454545454546</v>
+        <v>0.1436170212765958</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8095238095238095</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1904761904761905</v>
+        <v>0.196078431372549</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09090909090909091</v>
+        <v>0.09056603773584905</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01976284584980237</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09486166007905138</v>
+        <v>0.09811320754716982</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2806324110671937</v>
+        <v>0.2792452830188679</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01185770750988142</v>
+        <v>0.01132075471698113</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1383399209486166</v>
+        <v>0.139622641509434</v>
       </c>
       <c r="R6">
-        <v>0.03952569169960474</v>
+        <v>0.04150943396226415</v>
       </c>
       <c r="S6">
-        <v>0.3241106719367589</v>
+        <v>0.3207547169811321</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1265822784810127</v>
+        <v>0.1294117647058824</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03164556962025317</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04430379746835443</v>
+        <v>0.04117647058823529</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0949367088607595</v>
+        <v>0.1</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01265822784810127</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2278481012658228</v>
+        <v>0.2176470588235294</v>
       </c>
       <c r="R7">
-        <v>0.05696202531645569</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="S7">
-        <v>0.4050632911392405</v>
+        <v>0.4117647058823529</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.106508875739645</v>
+        <v>0.108256880733945</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01775147928994083</v>
+        <v>0.02201834862385321</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07100591715976332</v>
+        <v>0.06972477064220184</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07889546351084813</v>
+        <v>0.08256880733944955</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01972386587771203</v>
+        <v>0.02018348623853211</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1952662721893491</v>
+        <v>0.1889908256880734</v>
       </c>
       <c r="R8">
-        <v>0.08086785009861933</v>
+        <v>0.08073394495412844</v>
       </c>
       <c r="S8">
-        <v>0.4299802761341223</v>
+        <v>0.4275229357798165</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09219858156028368</v>
+        <v>0.1032258064516129</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02836879432624113</v>
+        <v>0.02580645161290323</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05673758865248227</v>
+        <v>0.05161290322580645</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09219858156028368</v>
+        <v>0.09032258064516129</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02127659574468085</v>
+        <v>0.02580645161290323</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2340425531914894</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="R9">
-        <v>0.0851063829787234</v>
+        <v>0.09032258064516129</v>
       </c>
       <c r="S9">
-        <v>0.3900709219858156</v>
+        <v>0.3870967741935484</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1140684410646388</v>
+        <v>0.1120917917034422</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01996197718631179</v>
+        <v>0.02383053839364519</v>
       </c>
       <c r="E10">
-        <v>0.001901140684410646</v>
+        <v>0.00176522506619594</v>
       </c>
       <c r="F10">
-        <v>0.06844106463878327</v>
+        <v>0.06619593998234775</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08460076045627377</v>
+        <v>0.08296557811120918</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01711026615969582</v>
+        <v>0.01588702559576346</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2423954372623574</v>
+        <v>0.2391879964695499</v>
       </c>
       <c r="R10">
-        <v>0.07984790874524715</v>
+        <v>0.0794351279788173</v>
       </c>
       <c r="S10">
-        <v>0.3716730038022814</v>
+        <v>0.3786407766990291</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1734317343173432</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07011070110701106</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="K11">
-        <v>0.2361623616236162</v>
+        <v>0.2256944444444444</v>
       </c>
       <c r="L11">
-        <v>0.5092250922509225</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01107011070110701</v>
+        <v>0.01041666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7142857142857143</v>
+        <v>0.7077922077922078</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2214285714285714</v>
+        <v>0.2337662337662338</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.02142857142857143</v>
+        <v>0.01948051948051948</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04285714285714286</v>
+        <v>0.03896103896103896</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6052631578947368</v>
+        <v>0.625</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3684210526315789</v>
+        <v>0.35</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02631578947368421</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04040404040404041</v>
+        <v>0.03791469194312796</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1919191919191919</v>
+        <v>0.1943127962085308</v>
       </c>
       <c r="I15">
-        <v>0.0707070707070707</v>
+        <v>0.07109004739336493</v>
       </c>
       <c r="J15">
-        <v>0.3585858585858586</v>
+        <v>0.3507109004739337</v>
       </c>
       <c r="K15">
-        <v>0.0707070707070707</v>
+        <v>0.07582938388625593</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02525252525252525</v>
+        <v>0.02369668246445497</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0707070707070707</v>
+        <v>0.06635071090047394</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1717171717171717</v>
+        <v>0.1800947867298578</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03349282296650718</v>
+        <v>0.03111111111111111</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2009569377990431</v>
+        <v>0.2133333333333333</v>
       </c>
       <c r="I16">
-        <v>0.09569377990430622</v>
+        <v>0.09777777777777778</v>
       </c>
       <c r="J16">
-        <v>0.3971291866028708</v>
+        <v>0.3911111111111111</v>
       </c>
       <c r="K16">
-        <v>0.1004784688995215</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01913875598086124</v>
+        <v>0.01777777777777778</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05263157894736842</v>
+        <v>0.04888888888888889</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1004784688995215</v>
+        <v>0.1066666666666667</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03896103896103896</v>
+        <v>0.03909465020576132</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2294372294372294</v>
+        <v>0.2263374485596708</v>
       </c>
       <c r="I17">
-        <v>0.0735930735930736</v>
+        <v>0.0720164609053498</v>
       </c>
       <c r="J17">
-        <v>0.4047619047619048</v>
+        <v>0.4053497942386831</v>
       </c>
       <c r="K17">
-        <v>0.08874458874458875</v>
+        <v>0.08847736625514403</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.002164502164502165</v>
+        <v>0.00205761316872428</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0735930735930736</v>
+        <v>0.07613168724279835</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08874458874458875</v>
+        <v>0.09053497942386832</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03846153846153846</v>
+        <v>0.03550295857988166</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2371794871794872</v>
+        <v>0.2366863905325444</v>
       </c>
       <c r="I18">
-        <v>0.0641025641025641</v>
+        <v>0.07100591715976332</v>
       </c>
       <c r="J18">
-        <v>0.3525641025641026</v>
+        <v>0.3668639053254438</v>
       </c>
       <c r="K18">
-        <v>0.08974358974358974</v>
+        <v>0.08284023668639054</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01923076923076923</v>
+        <v>0.01775147928994083</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1025641025641026</v>
+        <v>0.1005917159763314</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09615384615384616</v>
+        <v>0.08875739644970414</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.03584229390681003</v>
+        <v>0.0347682119205298</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2589605734767025</v>
+        <v>0.2574503311258278</v>
       </c>
       <c r="I19">
-        <v>0.05824372759856631</v>
+        <v>0.06043046357615894</v>
       </c>
       <c r="J19">
-        <v>0.3261648745519714</v>
+        <v>0.3286423841059603</v>
       </c>
       <c r="K19">
-        <v>0.1021505376344086</v>
+        <v>0.1043046357615894</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02508960573476703</v>
+        <v>0.02483443708609271</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05824372759856631</v>
+        <v>0.05877483443708609</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1353046594982079</v>
+        <v>0.130794701986755</v>
       </c>
     </row>
   </sheetData>
